--- a/ref/preliminary_calibration_info/df_ce_var_calib.xlsx
+++ b/ref/preliminary_calibration_info/df_ce_var_calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/preliminary_calibration_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BA0752-B994-B645-9B35-724FEF636796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78BBF9-A9A7-7F40-9836-F5663F82F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="460" windowWidth="32840" windowHeight="20040" xr2:uid="{C56D6200-D790-8F41-83C3-9FCF52DEFC0A}"/>
   </bookViews>
@@ -1594,7 +1594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
